--- a/Hoàng/2025/T4/CÔNG TY TNHH TK ELEVATOR VIỆT NAM (55-2025)/BÁO GIÁ - CÔNG TY TNHH TK ELAVATOR VIỆT NAM.xlsx
+++ b/Hoàng/2025/T4/CÔNG TY TNHH TK ELEVATOR VIỆT NAM (55-2025)/BÁO GIÁ - CÔNG TY TNHH TK ELAVATOR VIỆT NAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SƯƠNG 2025\1. KSK DOANH NGHIỆP 2025\T4\CÔNG TY TNHH TK ELEVATOR VIỆT NAM - 55\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\T4\CÔNG TY TNHH TK ELEVATOR VIỆT NAM (55-2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09631A5E-B725-41D4-BBBD-D70682A945C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347DA6F-19ED-4C50-A557-7D619E2886B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BÁO GIÁ" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -829,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,18 +1048,81 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,66 +1204,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,18 +1212,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1828,8 +1823,8 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1850,48 +1845,48 @@
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="94"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
@@ -1903,15 +1898,15 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1934,29 +1929,29 @@
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="103"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="127"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1964,13 +1959,13 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="130"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -1990,10 +1985,10 @@
       <c r="A13" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="110"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="31" t="s">
         <v>3</v>
       </c>
@@ -2009,86 +2004,86 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="122">
+      <c r="A14" s="87">
         <f>IF(LEN(C14)=0,"",COUNTA($C$14:C14))</f>
         <v>1</v>
       </c>
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="93" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="111">
+      <c r="E14" s="96">
         <v>200000</v>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="96">
         <v>160000</v>
       </c>
-      <c r="G14" s="131"/>
+      <c r="G14" s="132"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="129"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="132"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="133"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="129"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="132"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="133"/>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="123"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="129"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="132"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="129"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="132"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="133"/>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="130"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="133"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="134"/>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -2299,7 +2294,7 @@
         <f>IF(LEN(C29)=0,"",COUNTA($C$14:C29))</f>
         <v>11</v>
       </c>
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="99" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="39" t="s">
@@ -2308,13 +2303,13 @@
       <c r="D29" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="105">
         <v>60000</v>
       </c>
-      <c r="F29" s="84">
+      <c r="F29" s="105">
         <v>45000</v>
       </c>
-      <c r="G29" s="86" t="s">
+      <c r="G29" s="107" t="s">
         <v>78</v>
       </c>
       <c r="H29" s="12"/>
@@ -2324,16 +2319,16 @@
         <f>IF(LEN(C30)=0,"",COUNTA($C$14:C30))</f>
         <v>12</v>
       </c>
-      <c r="B30" s="134"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="108"/>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,7 +2336,7 @@
         <f>IF(LEN(C31)=0,"",COUNTA($C$14:C31))</f>
         <v>13</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="109" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -2353,10 +2348,10 @@
       <c r="E31" s="49">
         <v>41000</v>
       </c>
-      <c r="F31" s="80">
+      <c r="F31" s="49">
         <v>33000</v>
       </c>
-      <c r="G31" s="89" t="s">
+      <c r="G31" s="110" t="s">
         <v>77</v>
       </c>
       <c r="H31" s="12"/>
@@ -2366,7 +2361,7 @@
         <f>IF(LEN(C32)=0,"",COUNTA($C$14:C32))</f>
         <v>14</v>
       </c>
-      <c r="B32" s="88"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="39" t="s">
         <v>49</v>
       </c>
@@ -2376,10 +2371,10 @@
       <c r="E32" s="49">
         <v>59000</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="49">
         <v>47000</v>
       </c>
-      <c r="G32" s="90"/>
+      <c r="G32" s="111"/>
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2387,7 +2382,7 @@
         <f>IF(LEN(C33)=0,"",COUNTA($C$14:C33))</f>
         <v>15</v>
       </c>
-      <c r="B33" s="88"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="39" t="s">
         <v>51</v>
       </c>
@@ -2397,10 +2392,10 @@
       <c r="E33" s="49">
         <v>47000</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="49">
         <v>37000</v>
       </c>
-      <c r="G33" s="90"/>
+      <c r="G33" s="111"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2408,7 +2403,7 @@
         <f>IF(LEN(C34)=0,"",COUNTA($C$14:C34))</f>
         <v>16</v>
       </c>
-      <c r="B34" s="88"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="39" t="s">
         <v>53</v>
       </c>
@@ -2418,10 +2413,10 @@
       <c r="E34" s="49">
         <v>41000</v>
       </c>
-      <c r="F34" s="82">
+      <c r="F34" s="49">
         <v>32000</v>
       </c>
-      <c r="G34" s="91"/>
+      <c r="G34" s="112"/>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2548,17 +2543,19 @@
       <c r="E40" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="77"/>
+      <c r="F40" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="G40" s="38"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="119" t="s">
+      <c r="A41" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="121"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86"/>
       <c r="E41" s="73">
         <f>SUM(E14:E40)</f>
         <v>2194000</v>
@@ -2576,7 +2573,7 @@
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
       <c r="E42" s="46"/>
-      <c r="F42" s="83"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="47"/>
       <c r="H42" s="12"/>
     </row>
@@ -2590,70 +2587,70 @@
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="116" t="s">
+      <c r="A44" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="62"/>
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
     </row>
     <row r="46" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
-      <c r="B46" s="117" t="s">
+      <c r="B46" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
     </row>
     <row r="47" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
-      <c r="B47" s="117" t="s">
+      <c r="B47" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
     </row>
     <row r="48" spans="1:8" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="61"/>
-      <c r="B49" s="117" t="s">
+      <c r="B49" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="117"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
     </row>
     <row r="50" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
@@ -2690,10 +2687,10 @@
     </row>
     <row r="53" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="61"/>
-      <c r="B53" s="114" t="s">
+      <c r="B53" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="115"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="65"/>
       <c r="E53" s="69"/>
       <c r="F53" s="69"/>
@@ -2723,20 +2720,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E29:E30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="G31:G34"/>
@@ -2748,74 +2731,68 @@
     <mergeCell ref="F14:F19"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G14:G19"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:E30"/>
   </mergeCells>
+  <conditionalFormatting sqref="C1:C52 C54:C1048576">
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C34">
+    <cfRule type="duplicateValues" dxfId="18" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C52 C1:C30 C54:C1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C52 C1:C34 C54:C1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C52 C24:C30 C22 C1:C20 C54:C1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C34">
-    <cfRule type="duplicateValues" dxfId="19" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C52 C1:C34 C54:C1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C52 C54:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2830,126 +2807,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0421C3EC-5DFC-4ACC-9168-EF14476B09A6}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M17:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="137"/>
-    <col min="2" max="2" width="36.42578125" style="137" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="137" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="83"/>
+    <col min="2" max="2" width="36.42578125" style="83" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" style="83" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="81" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="136">
+      <c r="A2" s="82">
         <v>1</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="136">
+      <c r="D2" s="82">
         <v>1976</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="136">
+      <c r="A3" s="82">
         <v>2</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="136">
+      <c r="D3" s="82">
         <v>1984</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="136">
+      <c r="A4" s="82">
         <v>3</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="136">
+      <c r="D4" s="82">
         <v>1982</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="136">
+      <c r="A5" s="82">
         <v>4</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="136">
+      <c r="D5" s="82">
         <v>1994</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="136">
+      <c r="A6" s="82">
         <v>5</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="82">
         <v>1987</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="136">
+      <c r="A7" s="82">
         <v>6</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="136">
+      <c r="D7" s="82">
         <v>1982</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="136">
+      <c r="A8" s="82">
         <v>7</v>
       </c>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="136">
+      <c r="D8" s="82">
         <v>1980</v>
       </c>
     </row>
